--- a/doc/UI需求.xlsx
+++ b/doc/UI需求.xlsx
@@ -1,44 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -46,135 +53,88 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40*80</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3种：1、英雄按钮
 2、技能按钮
 3、装备按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三种按钮风格一致，颜色不同，3态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公用背景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、主背景
-2、栏目背景
-3、输入框背景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能icon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮2</t>
   </si>
   <si>
     <r>
-      <t>7个技能</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>icon</t>
+      <t>20*50</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>95*95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>技能i</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2种：</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>con2</t>
+      <t>1、正常的
+2、特殊醒目的</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
+  </si>
+  <si>
+    <t>公用背景</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1、主背景
+2、栏目背景
+3、输入框背景</t>
+  </si>
+  <si>
+    <t>九宫格。用于界面背景底层显示。各背景可叠加，需要层次清晰</t>
+  </si>
+  <si>
+    <t>进度条</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>0*90</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0个技能icon</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方形，其中7个内容与圆形的一样</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九宫格。用于界面背景底层显示。各背景可叠加，需要层次清晰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>4</t>
     </r>
     <r>
@@ -182,23 +142,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50*24</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红、绿两种进度条条内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术字（数字）</t>
   </si>
   <si>
     <t>数字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -206,15 +171,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6/18/20/22号</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4种字号的：</t>
     </r>
     <r>
@@ -222,167 +191,409 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+-0123456789，%共14个字符</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术字（数字）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oading界面</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40*960</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>要有游际的l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ogo</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20*50</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2种：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、正常的
-2、特殊醒目的</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>深浅各一套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>title卷轴</t>
+  </si>
+  <si>
+    <t>资源icon</t>
+  </si>
+  <si>
+    <t>两个尺寸，有底无底</t>
+  </si>
+  <si>
+    <t>战役icon</t>
+  </si>
+  <si>
+    <t>战斗场景</t>
+  </si>
+  <si>
+    <t>风格</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -390,32 +601,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -437,16 +930,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1866899" y="347731"/>
-          <a:ext cx="1899645" cy="880994"/>
+          <a:off x="1866265" y="347345"/>
+          <a:ext cx="1899920" cy="881380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,110 +977,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1885950" y="2724150"/>
-          <a:ext cx="2169347" cy="952499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>876122</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2247900" y="2714625"/>
-          <a:ext cx="676275" cy="714197"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1245486</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2247901" y="3743324"/>
-          <a:ext cx="645410" cy="771525"/>
+          <a:ext cx="2169160" cy="951865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -608,14 +1007,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147195</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2959551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>504315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,16 +1024,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="4833495"/>
-          <a:ext cx="2826201" cy="262380"/>
+          <a:off x="1781175" y="4137660"/>
+          <a:ext cx="2825750" cy="262255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,13 +1071,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1762125" y="1762125"/>
           <a:ext cx="1219200" cy="485775"/>
@@ -694,6 +1093,135 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2362835</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>667385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="5257165"/>
+          <a:ext cx="2048510" cy="638810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2337435</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>641350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1936750" y="6565265"/>
+          <a:ext cx="2048510" cy="638810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1915795</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="5876925"/>
+          <a:ext cx="1410970" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -985,22 +1513,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1017,192 +1546,173 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="93" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="91.5" customHeight="1">
-      <c r="A3" s="2">
+    <row r="3" ht="91.5" customHeight="1" spans="1:5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105.75" customHeight="1">
-      <c r="A4" s="2">
+    <row r="4" ht="105.75" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="52.5" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="52.5" customHeight="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A8" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="85.5" customHeight="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="9" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A9" s="2">
-        <v>7</v>
+    <row r="9" ht="52.5" customHeight="1" spans="1:2">
+      <c r="A9" s="1">
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="10" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="52.5" customHeight="1"/>
-    <row r="17" ht="52.5" customHeight="1"/>
-    <row r="18" ht="52.5" customHeight="1"/>
-    <row r="19" ht="52.5" customHeight="1"/>
+    <row r="11" ht="52.5" customHeight="1"/>
+    <row r="12" ht="52.5" customHeight="1"/>
+    <row r="13" ht="52.5" customHeight="1"/>
+    <row r="14" ht="52.5" customHeight="1"/>
+    <row r="15" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>